--- a/Ticket/ticket_balanca.xlsx
+++ b/Ticket/ticket_balanca.xlsx
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="D13" s="27" t="n">
-        <v>850</v>
+        <v>8500</v>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="J13" s="36" t="n"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D14" s="28" t="n">
-        <v>11150</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="28" t="n"/>
       <c r="J14" s="36" t="n"/>

--- a/Ticket/ticket_balanca.xlsx
+++ b/Ticket/ticket_balanca.xlsx
@@ -290,7 +290,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -338,48 +338,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,45 +765,45 @@
   </sheetPr>
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="1.54296875" customWidth="1" style="30" min="1" max="1"/>
-    <col width="10.81640625" customWidth="1" style="30" min="2" max="2"/>
-    <col width="8.453125" customWidth="1" style="30" min="3" max="3"/>
-    <col width="12.26953125" bestFit="1" customWidth="1" style="30" min="4" max="5"/>
-    <col width="13.7265625" bestFit="1" customWidth="1" style="30" min="7" max="7"/>
-    <col width="8.54296875" customWidth="1" style="30" min="9" max="9"/>
-    <col width="7.81640625" customWidth="1" style="30" min="10" max="10"/>
-    <col width="2.36328125" customWidth="1" style="30" min="11" max="11"/>
+    <col width="1.54296875" customWidth="1" style="49" min="1" max="1"/>
+    <col width="10.81640625" customWidth="1" style="49" min="2" max="2"/>
+    <col width="8.453125" customWidth="1" style="49" min="3" max="3"/>
+    <col width="12.26953125" bestFit="1" customWidth="1" style="49" min="4" max="5"/>
+    <col width="13.7265625" bestFit="1" customWidth="1" style="49" min="7" max="7"/>
+    <col width="8.54296875" customWidth="1" style="49" min="9" max="9"/>
+    <col width="7.81640625" customWidth="1" style="49" min="10" max="10"/>
+    <col width="2.36328125" customWidth="1" style="49" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="30" thickBot="1"/>
-    <row r="2" ht="15.65" customHeight="1" s="30" thickTop="1">
+    <row r="1" ht="15" customHeight="1" s="49" thickBot="1"/>
+    <row r="2" ht="15.65" customHeight="1" s="49" thickTop="1">
       <c r="B2" s="1" t="n"/>
-      <c r="C2" s="32" t="n"/>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="C2" s="35" t="n"/>
+      <c r="D2" s="34" t="inlineStr">
         <is>
           <t>EMAPLA - GERENCIAMENTO DE RESÍDUOS LTDA.</t>
         </is>
       </c>
-      <c r="E2" s="32" t="n"/>
-      <c r="F2" s="32" t="n"/>
-      <c r="G2" s="32" t="n"/>
+      <c r="E2" s="35" t="n"/>
+      <c r="F2" s="35" t="n"/>
+      <c r="G2" s="35" t="n"/>
       <c r="H2" s="33" t="n"/>
-      <c r="I2" s="39" t="inlineStr">
+      <c r="I2" s="32" t="inlineStr">
         <is>
           <t>TICKET DE PESAGEM</t>
         </is>
       </c>
       <c r="J2" s="33" t="n"/>
     </row>
-    <row r="3" ht="14.5" customHeight="1" s="30" thickBot="1">
+    <row r="3" ht="14.5" customHeight="1" s="49" thickBot="1">
       <c r="B3" s="43" t="n"/>
-      <c r="E3" s="29" t="inlineStr">
+      <c r="E3" s="41" t="inlineStr">
         <is>
           <t>RUA SANTO ANTÔNIO, Nº 659 - TIBIRI</t>
         </is>
@@ -807,36 +811,36 @@
       <c r="I3" s="42" t="n">
         <v>18</v>
       </c>
-      <c r="J3" s="36" t="n"/>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" s="30" thickTop="1">
+      <c r="J3" s="51" t="n"/>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" s="49" thickTop="1">
       <c r="B4" s="43" t="n"/>
       <c r="D4" s="40" t="inlineStr">
         <is>
           <t>FONE: (98) 9 9268-0495 / 3241-9074  - emapla@emapla.com.br</t>
         </is>
       </c>
-      <c r="H4" s="36" t="n"/>
+      <c r="H4" s="51" t="n"/>
       <c r="I4" s="43" t="n"/>
-      <c r="J4" s="36" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="30" thickBot="1">
+      <c r="J4" s="51" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="49" thickBot="1">
       <c r="B5" s="12" t="n"/>
       <c r="C5" s="13" t="n"/>
-      <c r="D5" s="46" t="inlineStr">
+      <c r="D5" s="36" t="inlineStr">
         <is>
           <t>CEP: 65095-330 - SÃO LUÍS-MA - CNPJ: 04.708.275/0001-35</t>
         </is>
       </c>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="45" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
+      <c r="G5" s="37" t="n"/>
+      <c r="H5" s="38" t="n"/>
       <c r="I5" s="44" t="n"/>
-      <c r="J5" s="45" t="n"/>
-    </row>
-    <row r="6" ht="6.65" customHeight="1" s="30" thickBot="1" thickTop="1"/>
-    <row r="7" ht="15" customHeight="1" s="30" thickTop="1">
+      <c r="J5" s="38" t="n"/>
+    </row>
+    <row r="6" ht="6.65" customHeight="1" s="49" thickBot="1" thickTop="1"/>
+    <row r="7" ht="15" customHeight="1" s="49" thickTop="1">
       <c r="B7" s="17" t="inlineStr">
         <is>
           <t>Código:</t>
@@ -846,8 +850,8 @@
         <f>I3</f>
         <v/>
       </c>
-      <c r="D7" s="32" t="n"/>
-      <c r="E7" s="32" t="n"/>
+      <c r="D7" s="35" t="n"/>
+      <c r="E7" s="35" t="n"/>
       <c r="F7" s="18" t="inlineStr">
         <is>
           <t>Data:</t>
@@ -869,7 +873,7 @@
     </row>
     <row r="8">
       <c r="B8" s="43" t="n"/>
-      <c r="J8" s="36" t="n"/>
+      <c r="J8" s="51" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="43" t="n"/>
@@ -878,12 +882,12 @@
           <t>Cliente:</t>
         </is>
       </c>
-      <c r="D9" s="48" t="inlineStr">
-        <is>
-          <t>M DIAS BRANCO</t>
-        </is>
-      </c>
-      <c r="J9" s="36" t="n"/>
+      <c r="D9" s="29" t="inlineStr">
+        <is>
+          <t>COCA</t>
+        </is>
+      </c>
+      <c r="J9" s="51" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="43" t="n"/>
@@ -892,9 +896,9 @@
           <t>Placa:</t>
         </is>
       </c>
-      <c r="D10" s="34" t="inlineStr">
-        <is>
-          <t>HPG-8F67</t>
+      <c r="D10" s="30" t="inlineStr">
+        <is>
+          <t>ROL-0J83</t>
         </is>
       </c>
       <c r="G10" s="15" t="inlineStr">
@@ -902,12 +906,12 @@
           <t>Motorista:</t>
         </is>
       </c>
-      <c r="H10" s="35" t="inlineStr">
-        <is>
-          <t>FABIO</t>
-        </is>
-      </c>
-      <c r="J10" s="36" t="n"/>
+      <c r="H10" s="30" t="inlineStr">
+        <is>
+          <t>ERICK</t>
+        </is>
+      </c>
+      <c r="J10" s="51" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="43" t="n"/>
@@ -916,22 +920,14 @@
           <t>Produto:</t>
         </is>
       </c>
-      <c r="D11" s="34" t="inlineStr">
-        <is>
-          <t>DIVERSOS</t>
-        </is>
-      </c>
+      <c r="D11" s="52" t="n"/>
       <c r="G11" s="16" t="inlineStr">
         <is>
           <t>Especie:</t>
         </is>
       </c>
-      <c r="H11" s="35" t="inlineStr">
-        <is>
-          <t>BAÚ</t>
-        </is>
-      </c>
-      <c r="J11" s="36" t="n"/>
+      <c r="H11" s="52" t="n"/>
+      <c r="J11" s="51" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="43" t="n"/>
@@ -944,7 +940,7 @@
         <v>12000</v>
       </c>
       <c r="E12" s="27" t="n"/>
-      <c r="J12" s="36" t="n"/>
+      <c r="J12" s="51" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="43" t="n"/>
@@ -957,7 +953,7 @@
         <v>8500</v>
       </c>
       <c r="E13" s="27" t="n"/>
-      <c r="J13" s="36" t="n"/>
+      <c r="J13" s="51" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="43" t="n"/>
@@ -970,30 +966,30 @@
         <v>3500</v>
       </c>
       <c r="E14" s="28" t="n"/>
-      <c r="J14" s="36" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="30" thickBot="1">
+      <c r="J14" s="51" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="49" thickBot="1">
       <c r="B15" s="6" t="n"/>
-      <c r="C15" s="47" t="n"/>
-      <c r="D15" s="47" t="n"/>
-      <c r="E15" s="47" t="n"/>
-      <c r="F15" s="47" t="n"/>
-      <c r="G15" s="47" t="n"/>
-      <c r="H15" s="47" t="n"/>
-      <c r="I15" s="47" t="n"/>
-      <c r="J15" s="45" t="n"/>
-    </row>
-    <row r="16" ht="23.5" customHeight="1" s="30" thickBot="1" thickTop="1">
+      <c r="C15" s="37" t="n"/>
+      <c r="D15" s="37" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
+      <c r="G15" s="37" t="n"/>
+      <c r="H15" s="37" t="n"/>
+      <c r="I15" s="37" t="n"/>
+      <c r="J15" s="38" t="n"/>
+    </row>
+    <row r="16" ht="23.5" customHeight="1" s="49" thickBot="1" thickTop="1">
       <c r="B16" s="25" t="inlineStr">
         <is>
           <t>Observação:</t>
         </is>
       </c>
-      <c r="C16" s="41" t="n"/>
-      <c r="D16" s="38" t="n"/>
-      <c r="E16" s="38" t="n"/>
-      <c r="F16" s="38" t="n"/>
-      <c r="G16" s="38" t="n"/>
+      <c r="C16" s="47" t="n"/>
+      <c r="D16" s="46" t="n"/>
+      <c r="E16" s="46" t="n"/>
+      <c r="F16" s="46" t="n"/>
+      <c r="G16" s="46" t="n"/>
       <c r="H16" s="20" t="inlineStr">
         <is>
           <t>Assinatura:</t>
@@ -1006,7 +1002,7 @@
       </c>
       <c r="J16" s="10" t="n"/>
     </row>
-    <row r="17" ht="18.65" customHeight="1" s="30" thickTop="1">
+    <row r="17" ht="18.65" customHeight="1" s="49" thickTop="1">
       <c r="B17" s="26" t="n"/>
       <c r="C17" s="26" t="n"/>
       <c r="D17" s="26" t="n"/>
@@ -1017,29 +1013,29 @@
       <c r="I17" s="26" t="n"/>
       <c r="J17" s="26" t="n"/>
     </row>
-    <row r="18" ht="38.5" customHeight="1" s="30" thickBot="1"/>
-    <row r="19" ht="16" customHeight="1" s="30" thickTop="1">
+    <row r="18" ht="38.5" customHeight="1" s="49" thickBot="1"/>
+    <row r="19" ht="16" customHeight="1" s="49" thickTop="1">
       <c r="B19" s="1" t="n"/>
-      <c r="C19" s="32" t="n"/>
-      <c r="D19" s="31" t="inlineStr">
+      <c r="C19" s="35" t="n"/>
+      <c r="D19" s="34" t="inlineStr">
         <is>
           <t>EMAPLA - GERENCIAMENTO DE RESÍDUOS LTDA.</t>
         </is>
       </c>
-      <c r="E19" s="32" t="n"/>
-      <c r="F19" s="32" t="n"/>
-      <c r="G19" s="32" t="n"/>
+      <c r="E19" s="35" t="n"/>
+      <c r="F19" s="35" t="n"/>
+      <c r="G19" s="35" t="n"/>
       <c r="H19" s="33" t="n"/>
-      <c r="I19" s="39" t="inlineStr">
+      <c r="I19" s="32" t="inlineStr">
         <is>
           <t>TICKET DE PESAGEM</t>
         </is>
       </c>
       <c r="J19" s="33" t="n"/>
     </row>
-    <row r="20" ht="14.5" customHeight="1" s="30" thickBot="1">
+    <row r="20" ht="14.5" customHeight="1" s="49" thickBot="1">
       <c r="B20" s="43" t="n"/>
-      <c r="E20" s="29" t="inlineStr">
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>RUA SANTO ANTÔNIO, Nº 659 - TIBIRI</t>
         </is>
@@ -1048,36 +1044,36 @@
         <f>I3</f>
         <v/>
       </c>
-      <c r="J20" s="36" t="n"/>
-    </row>
-    <row r="21" ht="14.5" customHeight="1" s="30" thickTop="1">
+      <c r="J20" s="51" t="n"/>
+    </row>
+    <row r="21" ht="14.5" customHeight="1" s="49" thickTop="1">
       <c r="B21" s="43" t="n"/>
       <c r="D21" s="40" t="inlineStr">
         <is>
           <t>FONE: (98) 9 9268-0495 / 3241-9074  - emapla@emapla.com.br</t>
         </is>
       </c>
-      <c r="H21" s="36" t="n"/>
+      <c r="H21" s="51" t="n"/>
       <c r="I21" s="43" t="n"/>
-      <c r="J21" s="36" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="30" thickBot="1">
+      <c r="J21" s="51" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="49" thickBot="1">
       <c r="B22" s="12" t="n"/>
       <c r="C22" s="13" t="n"/>
-      <c r="D22" s="46" t="inlineStr">
+      <c r="D22" s="36" t="inlineStr">
         <is>
           <t>CEP: 65095-330 - SÃO LUÍS-MA - CNPJ: 04.708.275/0001-35</t>
         </is>
       </c>
-      <c r="E22" s="47" t="n"/>
-      <c r="F22" s="47" t="n"/>
-      <c r="G22" s="47" t="n"/>
-      <c r="H22" s="45" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
+      <c r="G22" s="37" t="n"/>
+      <c r="H22" s="38" t="n"/>
       <c r="I22" s="44" t="n"/>
-      <c r="J22" s="45" t="n"/>
-    </row>
-    <row r="23" ht="8.5" customHeight="1" s="30" thickBot="1" thickTop="1"/>
-    <row r="24" ht="15" customHeight="1" s="30" thickTop="1">
+      <c r="J22" s="38" t="n"/>
+    </row>
+    <row r="23" ht="8.5" customHeight="1" s="49" thickBot="1" thickTop="1"/>
+    <row r="24" ht="15" customHeight="1" s="49" thickTop="1">
       <c r="B24" s="17" t="inlineStr">
         <is>
           <t>Código:</t>
@@ -1087,8 +1083,8 @@
         <f>I20</f>
         <v/>
       </c>
-      <c r="D24" s="32" t="n"/>
-      <c r="E24" s="32" t="n"/>
+      <c r="D24" s="35" t="n"/>
+      <c r="E24" s="35" t="n"/>
       <c r="F24" s="18" t="inlineStr">
         <is>
           <t>Data:</t>
@@ -1111,7 +1107,7 @@
     </row>
     <row r="25">
       <c r="B25" s="43" t="n"/>
-      <c r="J25" s="36" t="n"/>
+      <c r="J25" s="51" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="43" t="n"/>
@@ -1120,11 +1116,8 @@
           <t>Cliente:</t>
         </is>
       </c>
-      <c r="D26" s="48">
-        <f>D9</f>
-        <v/>
-      </c>
-      <c r="J26" s="36" t="n"/>
+      <c r="D26" s="48" t="n"/>
+      <c r="J26" s="51" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="43" t="n"/>
@@ -1133,21 +1126,23 @@
           <t>Placa:</t>
         </is>
       </c>
-      <c r="D27" s="34">
-        <f>D10</f>
-        <v/>
-      </c>
-      <c r="F27" s="14" t="n"/>
+      <c r="D27" s="52" t="inlineStr">
+        <is>
+          <t>ROL-0J83</t>
+        </is>
+      </c>
+      <c r="F27" s="52" t="n"/>
       <c r="G27" s="15" t="inlineStr">
         <is>
           <t>Motorista:</t>
         </is>
       </c>
-      <c r="H27" s="35">
-        <f>H10</f>
-        <v/>
-      </c>
-      <c r="J27" s="36" t="n"/>
+      <c r="H27" s="52" t="inlineStr">
+        <is>
+          <t>ERICK</t>
+        </is>
+      </c>
+      <c r="J27" s="51" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="43" t="n"/>
@@ -1156,20 +1151,14 @@
           <t>Produto:</t>
         </is>
       </c>
-      <c r="D28" s="34">
-        <f>D11</f>
-        <v/>
-      </c>
+      <c r="D28" s="52" t="n"/>
       <c r="G28" s="16" t="inlineStr">
         <is>
           <t>Especie:</t>
         </is>
       </c>
-      <c r="H28" s="35">
-        <f>H11</f>
-        <v/>
-      </c>
-      <c r="J28" s="36" t="n"/>
+      <c r="H28" s="52" t="n"/>
+      <c r="J28" s="51" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="43" t="n"/>
@@ -1178,13 +1167,12 @@
           <t>Peso Bruto:</t>
         </is>
       </c>
-      <c r="D29" s="27">
-        <f>D12</f>
-        <v/>
+      <c r="D29" s="27" t="n">
+        <v>12000</v>
       </c>
       <c r="E29" s="27" t="n"/>
-      <c r="F29" s="14" t="n"/>
-      <c r="J29" s="36" t="n"/>
+      <c r="F29" s="52" t="n"/>
+      <c r="J29" s="51" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="43" t="n"/>
@@ -1193,13 +1181,12 @@
           <t>Tara:</t>
         </is>
       </c>
-      <c r="D30" s="27">
-        <f>D13</f>
-        <v/>
+      <c r="D30" s="27" t="n">
+        <v>8500</v>
       </c>
       <c r="E30" s="27" t="n"/>
-      <c r="F30" s="14" t="n"/>
-      <c r="J30" s="36" t="n"/>
+      <c r="F30" s="52" t="n"/>
+      <c r="J30" s="51" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="43" t="n"/>
@@ -1208,39 +1195,38 @@
           <t>Peso Liquido:</t>
         </is>
       </c>
-      <c r="D31" s="28">
-        <f>D29-D30</f>
-        <v/>
+      <c r="D31" s="28" t="n">
+        <v>3500</v>
       </c>
       <c r="E31" s="28" t="n"/>
-      <c r="F31" s="14" t="n"/>
-      <c r="J31" s="36" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="30" thickBot="1">
+      <c r="F31" s="52" t="n"/>
+      <c r="J31" s="51" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="49" thickBot="1">
       <c r="B32" s="6" t="n"/>
-      <c r="C32" s="47" t="n"/>
-      <c r="D32" s="47" t="n"/>
-      <c r="E32" s="47" t="n"/>
-      <c r="F32" s="47" t="n"/>
-      <c r="G32" s="47" t="n"/>
-      <c r="H32" s="47" t="n"/>
-      <c r="I32" s="47" t="n"/>
-      <c r="J32" s="45" t="n"/>
-    </row>
-    <row r="33" ht="23.5" customHeight="1" s="30" thickBot="1" thickTop="1">
+      <c r="C32" s="37" t="n"/>
+      <c r="D32" s="37" t="n"/>
+      <c r="E32" s="37" t="n"/>
+      <c r="F32" s="37" t="n"/>
+      <c r="G32" s="37" t="n"/>
+      <c r="H32" s="37" t="n"/>
+      <c r="I32" s="37" t="n"/>
+      <c r="J32" s="38" t="n"/>
+    </row>
+    <row r="33" ht="23.5" customHeight="1" s="49" thickBot="1" thickTop="1">
       <c r="B33" s="19" t="inlineStr">
         <is>
           <t>Observação:</t>
         </is>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="45">
         <f>IF(C16="","",C16)</f>
         <v/>
       </c>
-      <c r="D33" s="38" t="n"/>
-      <c r="E33" s="38" t="n"/>
-      <c r="F33" s="38" t="n"/>
-      <c r="G33" s="38" t="n"/>
+      <c r="D33" s="46" t="n"/>
+      <c r="E33" s="46" t="n"/>
+      <c r="F33" s="46" t="n"/>
+      <c r="G33" s="46" t="n"/>
       <c r="H33" s="20" t="inlineStr">
         <is>
           <t>Assinatura:</t>
@@ -1253,33 +1239,23 @@
       </c>
       <c r="J33" s="10" t="n"/>
     </row>
-    <row r="34" ht="15" customHeight="1" s="30" thickTop="1"/>
+    <row r="34" ht="15" customHeight="1" s="49" thickTop="1"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:E10"/>
+  <mergeCells count="14">
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I20:J22"/>
     <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="I3:J5"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="I20:J22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D22:H22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.5118110236220472" bottom="0.7480314960629921" header="0.2755905511811024" footer="0.3149606299212598"/>

--- a/Ticket/ticket_balanca.xlsx
+++ b/Ticket/ticket_balanca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Planilha1'!$A$1:$K$33</definedName>
   </definedNames>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -113,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -243,19 +243,6 @@
       <right/>
       <top/>
       <bottom style="dashDotDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -344,46 +331,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,93 +762,96 @@
   </sheetPr>
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="1.54296875" customWidth="1" style="49" min="1" max="1"/>
-    <col width="10.81640625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="8.453125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="12.26953125" bestFit="1" customWidth="1" style="49" min="4" max="5"/>
-    <col width="13.7265625" bestFit="1" customWidth="1" style="49" min="7" max="7"/>
-    <col width="8.54296875" customWidth="1" style="49" min="9" max="9"/>
-    <col width="7.81640625" customWidth="1" style="49" min="10" max="10"/>
-    <col width="2.36328125" customWidth="1" style="49" min="11" max="11"/>
+    <col width="1.5546875" customWidth="1" style="42" min="1" max="1"/>
+    <col width="10.77734375" customWidth="1" style="42" min="2" max="2"/>
+    <col width="8.44140625" customWidth="1" style="42" min="3" max="3"/>
+    <col width="12.21875" bestFit="1" customWidth="1" style="42" min="4" max="5"/>
+    <col width="13.77734375" bestFit="1" customWidth="1" style="42" min="7" max="7"/>
+    <col width="8.5546875" customWidth="1" style="42" min="9" max="9"/>
+    <col width="7.77734375" customWidth="1" style="42" min="10" max="10"/>
+    <col width="2.33203125" customWidth="1" style="42" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="49" thickBot="1"/>
-    <row r="2" ht="15.65" customHeight="1" s="49" thickTop="1">
+    <row r="1" ht="15" customHeight="1" s="42" thickBot="1"/>
+    <row r="2" ht="15.6" customHeight="1" s="42" thickTop="1">
       <c r="B2" s="1" t="n"/>
-      <c r="C2" s="35" t="n"/>
-      <c r="D2" s="34" t="inlineStr">
+      <c r="C2" s="49" t="n"/>
+      <c r="D2" s="48" t="inlineStr">
         <is>
           <t>EMAPLA - GERENCIAMENTO DE RESÍDUOS LTDA.</t>
         </is>
       </c>
-      <c r="E2" s="35" t="n"/>
-      <c r="F2" s="35" t="n"/>
-      <c r="G2" s="35" t="n"/>
-      <c r="H2" s="33" t="n"/>
-      <c r="I2" s="32" t="inlineStr">
+      <c r="E2" s="49" t="n"/>
+      <c r="F2" s="49" t="n"/>
+      <c r="G2" s="49" t="n"/>
+      <c r="H2" s="50" t="n"/>
+      <c r="I2" s="51" t="inlineStr">
         <is>
           <t>TICKET DE PESAGEM</t>
         </is>
       </c>
-      <c r="J2" s="33" t="n"/>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" s="49" thickBot="1">
-      <c r="B3" s="43" t="n"/>
-      <c r="E3" s="41" t="inlineStr">
+      <c r="J2" s="50" t="n"/>
+    </row>
+    <row r="3" ht="14.55" customHeight="1" s="42">
+      <c r="B3" s="4" t="n"/>
+      <c r="E3" s="47" t="inlineStr">
         <is>
           <t>RUA SANTO ANTÔNIO, Nº 659 - TIBIRI</t>
         </is>
       </c>
-      <c r="I3" s="42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J3" s="51" t="n"/>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" s="49" thickTop="1">
-      <c r="B4" s="43" t="n"/>
-      <c r="D4" s="40" t="inlineStr">
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="34" t="n"/>
+    </row>
+    <row r="4" ht="14.55" customHeight="1" s="42">
+      <c r="B4" s="4" t="n"/>
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>FONE: (98) 9 9268-0495 / 3241-9074  - emapla@emapla.com.br</t>
         </is>
       </c>
-      <c r="H4" s="51" t="n"/>
-      <c r="I4" s="43" t="n"/>
-      <c r="J4" s="51" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="49" thickBot="1">
+      <c r="H4" s="43" t="n"/>
+      <c r="I4" s="38" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="J4" s="37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="42" thickBot="1">
       <c r="B5" s="12" t="n"/>
       <c r="C5" s="13" t="n"/>
-      <c r="D5" s="36" t="inlineStr">
+      <c r="D5" s="44" t="inlineStr">
         <is>
           <t>CEP: 65095-330 - SÃO LUÍS-MA - CNPJ: 04.708.275/0001-35</t>
         </is>
       </c>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="37" t="n"/>
-      <c r="G5" s="37" t="n"/>
-      <c r="H5" s="38" t="n"/>
-      <c r="I5" s="44" t="n"/>
-      <c r="J5" s="38" t="n"/>
-    </row>
-    <row r="6" ht="6.65" customHeight="1" s="49" thickBot="1" thickTop="1"/>
-    <row r="7" ht="15" customHeight="1" s="49" thickTop="1">
+      <c r="E5" s="45" t="n"/>
+      <c r="F5" s="45" t="n"/>
+      <c r="G5" s="45" t="n"/>
+      <c r="H5" s="46" t="n"/>
+      <c r="I5" s="35" t="n"/>
+      <c r="J5" s="36" t="n"/>
+    </row>
+    <row r="6" ht="6.6" customHeight="1" s="42" thickBot="1" thickTop="1"/>
+    <row r="7" ht="15" customHeight="1" s="42" thickTop="1">
       <c r="B7" s="17" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="C7" s="24">
-        <f>I3</f>
-        <v/>
-      </c>
-      <c r="D7" s="35" t="n"/>
-      <c r="E7" s="35" t="n"/>
+      <c r="C7" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="49" t="n"/>
+      <c r="E7" s="49" t="n"/>
       <c r="F7" s="18" t="inlineStr">
         <is>
           <t>Data:</t>
@@ -869,14 +869,14 @@
         <f>NOW()</f>
         <v/>
       </c>
-      <c r="J7" s="33" t="n"/>
+      <c r="J7" s="50" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="43" t="n"/>
-      <c r="J8" s="51" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="J8" s="43" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="43" t="n"/>
+      <c r="B9" s="4" t="n"/>
       <c r="C9" s="15" t="inlineStr">
         <is>
           <t>Cliente:</t>
@@ -884,13 +884,13 @@
       </c>
       <c r="D9" s="29" t="inlineStr">
         <is>
-          <t>COCA</t>
-        </is>
-      </c>
-      <c r="J9" s="51" t="n"/>
+          <t>EDRO</t>
+        </is>
+      </c>
+      <c r="J9" s="43" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="43" t="n"/>
+      <c r="B10" s="4" t="n"/>
       <c r="C10" s="15" t="inlineStr">
         <is>
           <t>Placa:</t>
@@ -908,29 +908,29 @@
       </c>
       <c r="H10" s="30" t="inlineStr">
         <is>
-          <t>ERICK</t>
-        </is>
-      </c>
-      <c r="J10" s="51" t="n"/>
+          <t>EGILSON</t>
+        </is>
+      </c>
+      <c r="J10" s="43" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="43" t="n"/>
+      <c r="B11" s="4" t="n"/>
       <c r="C11" s="15" t="inlineStr">
         <is>
           <t>Produto:</t>
         </is>
       </c>
-      <c r="D11" s="52" t="n"/>
+      <c r="D11" s="14" t="n"/>
       <c r="G11" s="16" t="inlineStr">
         <is>
           <t>Especie:</t>
         </is>
       </c>
-      <c r="H11" s="52" t="n"/>
-      <c r="J11" s="51" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="43" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="43" t="n"/>
+      <c r="B12" s="4" t="n"/>
       <c r="C12" s="15" t="inlineStr">
         <is>
           <t>Peso Bruto:</t>
@@ -940,10 +940,10 @@
         <v>12000</v>
       </c>
       <c r="E12" s="27" t="n"/>
-      <c r="J12" s="51" t="n"/>
+      <c r="J12" s="43" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="43" t="n"/>
+      <c r="B13" s="4" t="n"/>
       <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Tara:</t>
@@ -953,10 +953,10 @@
         <v>8500</v>
       </c>
       <c r="E13" s="27" t="n"/>
-      <c r="J13" s="51" t="n"/>
+      <c r="J13" s="43" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="43" t="n"/>
+      <c r="B14" s="4" t="n"/>
       <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Peso Liquido:</t>
@@ -966,30 +966,30 @@
         <v>3500</v>
       </c>
       <c r="E14" s="28" t="n"/>
-      <c r="J14" s="51" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="49" thickBot="1">
+      <c r="J14" s="43" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="42" thickBot="1">
       <c r="B15" s="6" t="n"/>
-      <c r="C15" s="37" t="n"/>
-      <c r="D15" s="37" t="n"/>
-      <c r="E15" s="37" t="n"/>
-      <c r="F15" s="37" t="n"/>
-      <c r="G15" s="37" t="n"/>
-      <c r="H15" s="37" t="n"/>
-      <c r="I15" s="37" t="n"/>
-      <c r="J15" s="38" t="n"/>
-    </row>
-    <row r="16" ht="23.5" customHeight="1" s="49" thickBot="1" thickTop="1">
+      <c r="C15" s="45" t="n"/>
+      <c r="D15" s="45" t="n"/>
+      <c r="E15" s="45" t="n"/>
+      <c r="F15" s="45" t="n"/>
+      <c r="G15" s="45" t="n"/>
+      <c r="H15" s="45" t="n"/>
+      <c r="I15" s="45" t="n"/>
+      <c r="J15" s="46" t="n"/>
+    </row>
+    <row r="16" ht="23.55" customHeight="1" s="42" thickBot="1" thickTop="1">
       <c r="B16" s="25" t="inlineStr">
         <is>
           <t>Observação:</t>
         </is>
       </c>
-      <c r="C16" s="47" t="n"/>
-      <c r="D16" s="46" t="n"/>
-      <c r="E16" s="46" t="n"/>
-      <c r="F16" s="46" t="n"/>
-      <c r="G16" s="46" t="n"/>
+      <c r="C16" s="52" t="n"/>
+      <c r="D16" s="40" t="n"/>
+      <c r="E16" s="40" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
       <c r="H16" s="20" t="inlineStr">
         <is>
           <t>Assinatura:</t>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="J16" s="10" t="n"/>
     </row>
-    <row r="17" ht="18.65" customHeight="1" s="49" thickTop="1">
+    <row r="17" ht="18.6" customHeight="1" s="42" thickTop="1">
       <c r="B17" s="26" t="n"/>
       <c r="C17" s="26" t="n"/>
       <c r="D17" s="26" t="n"/>
@@ -1013,78 +1013,80 @@
       <c r="I17" s="26" t="n"/>
       <c r="J17" s="26" t="n"/>
     </row>
-    <row r="18" ht="38.5" customHeight="1" s="49" thickBot="1"/>
-    <row r="19" ht="16" customHeight="1" s="49" thickTop="1">
+    <row r="18" ht="38.55" customHeight="1" s="42" thickBot="1"/>
+    <row r="19" ht="16.05" customHeight="1" s="42" thickTop="1">
       <c r="B19" s="1" t="n"/>
-      <c r="C19" s="35" t="n"/>
-      <c r="D19" s="34" t="inlineStr">
+      <c r="C19" s="49" t="n"/>
+      <c r="D19" s="48" t="inlineStr">
         <is>
           <t>EMAPLA - GERENCIAMENTO DE RESÍDUOS LTDA.</t>
         </is>
       </c>
-      <c r="E19" s="35" t="n"/>
-      <c r="F19" s="35" t="n"/>
-      <c r="G19" s="35" t="n"/>
-      <c r="H19" s="33" t="n"/>
-      <c r="I19" s="32" t="inlineStr">
+      <c r="E19" s="49" t="n"/>
+      <c r="F19" s="49" t="n"/>
+      <c r="G19" s="49" t="n"/>
+      <c r="H19" s="50" t="n"/>
+      <c r="I19" s="51" t="inlineStr">
         <is>
           <t>TICKET DE PESAGEM</t>
         </is>
       </c>
-      <c r="J19" s="33" t="n"/>
-    </row>
-    <row r="20" ht="14.5" customHeight="1" s="49" thickBot="1">
-      <c r="B20" s="43" t="n"/>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="J19" s="50" t="n"/>
+    </row>
+    <row r="20" ht="14.55" customHeight="1" s="42">
+      <c r="B20" s="4" t="n"/>
+      <c r="E20" s="47" t="inlineStr">
         <is>
           <t>RUA SANTO ANTÔNIO, Nº 659 - TIBIRI</t>
         </is>
       </c>
-      <c r="I20" s="42">
-        <f>I3</f>
-        <v/>
-      </c>
-      <c r="J20" s="51" t="n"/>
-    </row>
-    <row r="21" ht="14.5" customHeight="1" s="49" thickTop="1">
-      <c r="B21" s="43" t="n"/>
-      <c r="D21" s="40" t="inlineStr">
+      <c r="I20" s="33" t="n"/>
+      <c r="J20" s="43" t="n"/>
+    </row>
+    <row r="21" ht="14.55" customHeight="1" s="42">
+      <c r="B21" s="4" t="n"/>
+      <c r="D21" s="41" t="inlineStr">
         <is>
           <t>FONE: (98) 9 9268-0495 / 3241-9074  - emapla@emapla.com.br</t>
         </is>
       </c>
-      <c r="H21" s="51" t="n"/>
-      <c r="I21" s="43" t="n"/>
-      <c r="J21" s="51" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="49" thickBot="1">
+      <c r="H21" s="43" t="n"/>
+      <c r="I21" s="38" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="J21" s="37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="42" thickBot="1">
       <c r="B22" s="12" t="n"/>
       <c r="C22" s="13" t="n"/>
-      <c r="D22" s="36" t="inlineStr">
+      <c r="D22" s="44" t="inlineStr">
         <is>
           <t>CEP: 65095-330 - SÃO LUÍS-MA - CNPJ: 04.708.275/0001-35</t>
         </is>
       </c>
-      <c r="E22" s="37" t="n"/>
-      <c r="F22" s="37" t="n"/>
-      <c r="G22" s="37" t="n"/>
-      <c r="H22" s="38" t="n"/>
-      <c r="I22" s="44" t="n"/>
-      <c r="J22" s="38" t="n"/>
-    </row>
-    <row r="23" ht="8.5" customHeight="1" s="49" thickBot="1" thickTop="1"/>
-    <row r="24" ht="15" customHeight="1" s="49" thickTop="1">
+      <c r="E22" s="45" t="n"/>
+      <c r="F22" s="45" t="n"/>
+      <c r="G22" s="45" t="n"/>
+      <c r="H22" s="46" t="n"/>
+      <c r="I22" s="32" t="n"/>
+      <c r="J22" s="46" t="n"/>
+    </row>
+    <row r="23" ht="8.550000000000001" customHeight="1" s="42" thickBot="1" thickTop="1"/>
+    <row r="24" ht="15" customHeight="1" s="42" thickTop="1">
       <c r="B24" s="17" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="C24" s="21">
-        <f>I20</f>
-        <v/>
-      </c>
-      <c r="D24" s="35" t="n"/>
-      <c r="E24" s="35" t="n"/>
+      <c r="C24" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="49" t="n"/>
+      <c r="E24" s="49" t="n"/>
       <c r="F24" s="18" t="inlineStr">
         <is>
           <t>Data:</t>
@@ -1103,65 +1105,69 @@
         <f>NOW()</f>
         <v/>
       </c>
-      <c r="J24" s="33" t="n"/>
+      <c r="J24" s="50" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="43" t="n"/>
-      <c r="J25" s="51" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="J25" s="43" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="43" t="n"/>
+      <c r="B26" s="4" t="n"/>
       <c r="C26" s="15" t="inlineStr">
         <is>
           <t>Cliente:</t>
         </is>
       </c>
-      <c r="D26" s="48" t="n"/>
-      <c r="J26" s="51" t="n"/>
+      <c r="D26" s="31" t="inlineStr">
+        <is>
+          <t>EDRO</t>
+        </is>
+      </c>
+      <c r="J26" s="43" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="43" t="n"/>
+      <c r="B27" s="4" t="n"/>
       <c r="C27" s="15" t="inlineStr">
         <is>
           <t>Placa:</t>
         </is>
       </c>
-      <c r="D27" s="52" t="inlineStr">
+      <c r="D27" s="14" t="inlineStr">
         <is>
           <t>ROL-0J83</t>
         </is>
       </c>
-      <c r="F27" s="52" t="n"/>
+      <c r="F27" s="14" t="n"/>
       <c r="G27" s="15" t="inlineStr">
         <is>
           <t>Motorista:</t>
         </is>
       </c>
-      <c r="H27" s="52" t="inlineStr">
-        <is>
-          <t>ERICK</t>
-        </is>
-      </c>
-      <c r="J27" s="51" t="n"/>
+      <c r="H27" s="14" t="inlineStr">
+        <is>
+          <t>EGILSON</t>
+        </is>
+      </c>
+      <c r="J27" s="43" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="43" t="n"/>
+      <c r="B28" s="4" t="n"/>
       <c r="C28" s="15" t="inlineStr">
         <is>
           <t>Produto:</t>
         </is>
       </c>
-      <c r="D28" s="52" t="n"/>
+      <c r="D28" s="14" t="n"/>
       <c r="G28" s="16" t="inlineStr">
         <is>
           <t>Especie:</t>
         </is>
       </c>
-      <c r="H28" s="52" t="n"/>
-      <c r="J28" s="51" t="n"/>
+      <c r="H28" s="14" t="n"/>
+      <c r="J28" s="43" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="43" t="n"/>
+      <c r="B29" s="4" t="n"/>
       <c r="C29" s="15" t="inlineStr">
         <is>
           <t>Peso Bruto:</t>
@@ -1171,11 +1177,11 @@
         <v>12000</v>
       </c>
       <c r="E29" s="27" t="n"/>
-      <c r="F29" s="52" t="n"/>
-      <c r="J29" s="51" t="n"/>
+      <c r="F29" s="14" t="n"/>
+      <c r="J29" s="43" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="43" t="n"/>
+      <c r="B30" s="4" t="n"/>
       <c r="C30" s="16" t="inlineStr">
         <is>
           <t>Tara:</t>
@@ -1185,11 +1191,11 @@
         <v>8500</v>
       </c>
       <c r="E30" s="27" t="n"/>
-      <c r="F30" s="52" t="n"/>
-      <c r="J30" s="51" t="n"/>
+      <c r="F30" s="14" t="n"/>
+      <c r="J30" s="43" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="43" t="n"/>
+      <c r="B31" s="4" t="n"/>
       <c r="C31" s="15" t="inlineStr">
         <is>
           <t>Peso Liquido:</t>
@@ -1199,34 +1205,34 @@
         <v>3500</v>
       </c>
       <c r="E31" s="28" t="n"/>
-      <c r="F31" s="52" t="n"/>
-      <c r="J31" s="51" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="49" thickBot="1">
+      <c r="F31" s="14" t="n"/>
+      <c r="J31" s="43" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="42" thickBot="1">
       <c r="B32" s="6" t="n"/>
-      <c r="C32" s="37" t="n"/>
-      <c r="D32" s="37" t="n"/>
-      <c r="E32" s="37" t="n"/>
-      <c r="F32" s="37" t="n"/>
-      <c r="G32" s="37" t="n"/>
-      <c r="H32" s="37" t="n"/>
-      <c r="I32" s="37" t="n"/>
-      <c r="J32" s="38" t="n"/>
-    </row>
-    <row r="33" ht="23.5" customHeight="1" s="49" thickBot="1" thickTop="1">
+      <c r="C32" s="45" t="n"/>
+      <c r="D32" s="45" t="n"/>
+      <c r="E32" s="45" t="n"/>
+      <c r="F32" s="45" t="n"/>
+      <c r="G32" s="45" t="n"/>
+      <c r="H32" s="45" t="n"/>
+      <c r="I32" s="45" t="n"/>
+      <c r="J32" s="46" t="n"/>
+    </row>
+    <row r="33" ht="23.55" customHeight="1" s="42" thickBot="1" thickTop="1">
       <c r="B33" s="19" t="inlineStr">
         <is>
           <t>Observação:</t>
         </is>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="39">
         <f>IF(C16="","",C16)</f>
         <v/>
       </c>
-      <c r="D33" s="46" t="n"/>
-      <c r="E33" s="46" t="n"/>
-      <c r="F33" s="46" t="n"/>
-      <c r="G33" s="46" t="n"/>
+      <c r="D33" s="40" t="n"/>
+      <c r="E33" s="40" t="n"/>
+      <c r="F33" s="40" t="n"/>
+      <c r="G33" s="40" t="n"/>
       <c r="H33" s="20" t="inlineStr">
         <is>
           <t>Assinatura:</t>
@@ -1239,20 +1245,18 @@
       </c>
       <c r="J33" s="10" t="n"/>
     </row>
-    <row r="34" ht="15" customHeight="1" s="49" thickTop="1"/>
+    <row r="34" ht="15" customHeight="1" s="42" thickTop="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I20:J22"/>
     <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I3:J5"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D22:H22"/>

--- a/Ticket/ticket_balanca.xlsx
+++ b/Ticket/ticket_balanca.xlsx
@@ -353,20 +353,11 @@
     <xf numFmtId="167" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -380,6 +371,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -762,45 +762,45 @@
   </sheetPr>
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="1.5546875" customWidth="1" style="42" min="1" max="1"/>
-    <col width="10.77734375" customWidth="1" style="42" min="2" max="2"/>
-    <col width="8.44140625" customWidth="1" style="42" min="3" max="3"/>
-    <col width="12.21875" bestFit="1" customWidth="1" style="42" min="4" max="5"/>
-    <col width="13.77734375" bestFit="1" customWidth="1" style="42" min="7" max="7"/>
-    <col width="8.5546875" customWidth="1" style="42" min="9" max="9"/>
-    <col width="7.77734375" customWidth="1" style="42" min="10" max="10"/>
-    <col width="2.33203125" customWidth="1" style="42" min="11" max="11"/>
+    <col width="1.5546875" customWidth="1" style="40" min="1" max="1"/>
+    <col width="10.77734375" customWidth="1" style="40" min="2" max="2"/>
+    <col width="8.44140625" customWidth="1" style="40" min="3" max="3"/>
+    <col width="12.21875" bestFit="1" customWidth="1" style="40" min="4" max="5"/>
+    <col width="13.77734375" bestFit="1" customWidth="1" style="40" min="7" max="7"/>
+    <col width="8.5546875" customWidth="1" style="40" min="9" max="9"/>
+    <col width="7.77734375" customWidth="1" style="40" min="10" max="10"/>
+    <col width="2.33203125" customWidth="1" style="40" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="42" thickBot="1"/>
-    <row r="2" ht="15.6" customHeight="1" s="42" thickTop="1">
+    <row r="1" ht="15" customHeight="1" s="40" thickBot="1"/>
+    <row r="2" ht="15.6" customHeight="1" s="40" thickTop="1">
       <c r="B2" s="1" t="n"/>
-      <c r="C2" s="49" t="n"/>
-      <c r="D2" s="48" t="inlineStr">
+      <c r="C2" s="44" t="n"/>
+      <c r="D2" s="43" t="inlineStr">
         <is>
           <t>EMAPLA - GERENCIAMENTO DE RESÍDUOS LTDA.</t>
         </is>
       </c>
-      <c r="E2" s="49" t="n"/>
-      <c r="F2" s="49" t="n"/>
-      <c r="G2" s="49" t="n"/>
-      <c r="H2" s="50" t="n"/>
-      <c r="I2" s="51" t="inlineStr">
+      <c r="E2" s="44" t="n"/>
+      <c r="F2" s="44" t="n"/>
+      <c r="G2" s="44" t="n"/>
+      <c r="H2" s="45" t="n"/>
+      <c r="I2" s="46" t="inlineStr">
         <is>
           <t>TICKET DE PESAGEM</t>
         </is>
       </c>
-      <c r="J2" s="50" t="n"/>
-    </row>
-    <row r="3" ht="14.55" customHeight="1" s="42">
+      <c r="J2" s="45" t="n"/>
+    </row>
+    <row r="3" ht="14.55" customHeight="1" s="40">
       <c r="B3" s="4" t="n"/>
-      <c r="E3" s="47" t="inlineStr">
+      <c r="E3" s="42" t="inlineStr">
         <is>
           <t>RUA SANTO ANTÔNIO, Nº 659 - TIBIRI</t>
         </is>
@@ -808,72 +808,75 @@
       <c r="I3" s="33" t="n"/>
       <c r="J3" s="34" t="n"/>
     </row>
-    <row r="4" ht="14.55" customHeight="1" s="42">
+    <row r="4" ht="14.55" customHeight="1" s="40">
       <c r="B4" s="4" t="n"/>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="D4" s="39" t="inlineStr">
         <is>
           <t>FONE: (98) 9 9268-0495 / 3241-9074  - emapla@emapla.com.br</t>
         </is>
       </c>
-      <c r="H4" s="43" t="n"/>
+      <c r="H4" s="41" t="n"/>
       <c r="I4" s="38" t="inlineStr">
         <is>
           <t>Nº</t>
         </is>
       </c>
       <c r="J4" s="37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="42" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="40" thickBot="1">
       <c r="B5" s="12" t="n"/>
       <c r="C5" s="13" t="n"/>
-      <c r="D5" s="44" t="inlineStr">
+      <c r="D5" s="49" t="inlineStr">
         <is>
           <t>CEP: 65095-330 - SÃO LUÍS-MA - CNPJ: 04.708.275/0001-35</t>
         </is>
       </c>
-      <c r="E5" s="45" t="n"/>
-      <c r="F5" s="45" t="n"/>
-      <c r="G5" s="45" t="n"/>
-      <c r="H5" s="46" t="n"/>
+      <c r="E5" s="50" t="n"/>
+      <c r="F5" s="50" t="n"/>
+      <c r="G5" s="50" t="n"/>
+      <c r="H5" s="51" t="n"/>
       <c r="I5" s="35" t="n"/>
       <c r="J5" s="36" t="n"/>
     </row>
-    <row r="6" ht="6.6" customHeight="1" s="42" thickBot="1" thickTop="1"/>
-    <row r="7" ht="15" customHeight="1" s="42" thickTop="1">
+    <row r="6" ht="6.6" customHeight="1" s="40" thickBot="1" thickTop="1"/>
+    <row r="7" ht="15" customHeight="1" s="40" thickTop="1">
       <c r="B7" s="17" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
       <c r="C7" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="49" t="n"/>
-      <c r="E7" s="49" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="44" t="n"/>
+      <c r="E7" s="44" t="n"/>
       <c r="F7" s="18" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G7" s="22" t="n">
-        <v>45629</v>
+      <c r="G7" s="22" t="inlineStr">
+        <is>
+          <t>14/01/2025</t>
+        </is>
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
           <t>Hora:</t>
         </is>
       </c>
-      <c r="I7" s="23">
-        <f>NOW()</f>
-        <v/>
-      </c>
-      <c r="J7" s="50" t="n"/>
+      <c r="I7" s="23" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="J7" s="45" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="4" t="n"/>
-      <c r="J8" s="43" t="n"/>
+      <c r="J8" s="41" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="4" t="n"/>
@@ -884,10 +887,10 @@
       </c>
       <c r="D9" s="29" t="inlineStr">
         <is>
-          <t>EDRO</t>
-        </is>
-      </c>
-      <c r="J9" s="43" t="n"/>
+          <t>COCA - COLA</t>
+        </is>
+      </c>
+      <c r="J9" s="41" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
@@ -911,7 +914,7 @@
           <t>EGILSON</t>
         </is>
       </c>
-      <c r="J10" s="43" t="n"/>
+      <c r="J10" s="41" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="4" t="n"/>
@@ -920,14 +923,18 @@
           <t>Produto:</t>
         </is>
       </c>
-      <c r="D11" s="14" t="n"/>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>Vidro</t>
+        </is>
+      </c>
       <c r="G11" s="16" t="inlineStr">
         <is>
           <t>Especie:</t>
         </is>
       </c>
       <c r="H11" s="14" t="n"/>
-      <c r="J11" s="43" t="n"/>
+      <c r="J11" s="41" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="4" t="n"/>
@@ -937,10 +944,10 @@
         </is>
       </c>
       <c r="D12" s="27" t="n">
-        <v>12000</v>
+        <v>11450</v>
       </c>
       <c r="E12" s="27" t="n"/>
-      <c r="J12" s="43" t="n"/>
+      <c r="J12" s="41" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="4" t="n"/>
@@ -950,10 +957,10 @@
         </is>
       </c>
       <c r="D13" s="27" t="n">
-        <v>8500</v>
+        <v>8310</v>
       </c>
       <c r="E13" s="27" t="n"/>
-      <c r="J13" s="43" t="n"/>
+      <c r="J13" s="41" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
@@ -963,33 +970,33 @@
         </is>
       </c>
       <c r="D14" s="28" t="n">
-        <v>3500</v>
+        <v>3140</v>
       </c>
       <c r="E14" s="28" t="n"/>
-      <c r="J14" s="43" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="42" thickBot="1">
+      <c r="J14" s="41" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="40" thickBot="1">
       <c r="B15" s="6" t="n"/>
-      <c r="C15" s="45" t="n"/>
-      <c r="D15" s="45" t="n"/>
-      <c r="E15" s="45" t="n"/>
-      <c r="F15" s="45" t="n"/>
-      <c r="G15" s="45" t="n"/>
-      <c r="H15" s="45" t="n"/>
-      <c r="I15" s="45" t="n"/>
-      <c r="J15" s="46" t="n"/>
-    </row>
-    <row r="16" ht="23.55" customHeight="1" s="42" thickBot="1" thickTop="1">
+      <c r="C15" s="50" t="n"/>
+      <c r="D15" s="50" t="n"/>
+      <c r="E15" s="50" t="n"/>
+      <c r="F15" s="50" t="n"/>
+      <c r="G15" s="50" t="n"/>
+      <c r="H15" s="50" t="n"/>
+      <c r="I15" s="50" t="n"/>
+      <c r="J15" s="51" t="n"/>
+    </row>
+    <row r="16" ht="23.55" customHeight="1" s="40" thickBot="1" thickTop="1">
       <c r="B16" s="25" t="inlineStr">
         <is>
           <t>Observação:</t>
         </is>
       </c>
-      <c r="C16" s="52" t="n"/>
-      <c r="D16" s="40" t="n"/>
-      <c r="E16" s="40" t="n"/>
-      <c r="F16" s="40" t="n"/>
-      <c r="G16" s="40" t="n"/>
+      <c r="C16" s="47" t="n"/>
+      <c r="D16" s="48" t="n"/>
+      <c r="E16" s="48" t="n"/>
+      <c r="F16" s="48" t="n"/>
+      <c r="G16" s="48" t="n"/>
       <c r="H16" s="20" t="inlineStr">
         <is>
           <t>Assinatura:</t>
@@ -1002,7 +1009,7 @@
       </c>
       <c r="J16" s="10" t="n"/>
     </row>
-    <row r="17" ht="18.6" customHeight="1" s="42" thickTop="1">
+    <row r="17" ht="18.6" customHeight="1" s="40" thickTop="1">
       <c r="B17" s="26" t="n"/>
       <c r="C17" s="26" t="n"/>
       <c r="D17" s="26" t="n"/>
@@ -1013,103 +1020,105 @@
       <c r="I17" s="26" t="n"/>
       <c r="J17" s="26" t="n"/>
     </row>
-    <row r="18" ht="38.55" customHeight="1" s="42" thickBot="1"/>
-    <row r="19" ht="16.05" customHeight="1" s="42" thickTop="1">
+    <row r="18" ht="38.55" customHeight="1" s="40" thickBot="1"/>
+    <row r="19" ht="16.05" customHeight="1" s="40" thickTop="1">
       <c r="B19" s="1" t="n"/>
-      <c r="C19" s="49" t="n"/>
-      <c r="D19" s="48" t="inlineStr">
+      <c r="C19" s="44" t="n"/>
+      <c r="D19" s="43" t="inlineStr">
         <is>
           <t>EMAPLA - GERENCIAMENTO DE RESÍDUOS LTDA.</t>
         </is>
       </c>
-      <c r="E19" s="49" t="n"/>
-      <c r="F19" s="49" t="n"/>
-      <c r="G19" s="49" t="n"/>
-      <c r="H19" s="50" t="n"/>
-      <c r="I19" s="51" t="inlineStr">
+      <c r="E19" s="44" t="n"/>
+      <c r="F19" s="44" t="n"/>
+      <c r="G19" s="44" t="n"/>
+      <c r="H19" s="45" t="n"/>
+      <c r="I19" s="46" t="inlineStr">
         <is>
           <t>TICKET DE PESAGEM</t>
         </is>
       </c>
-      <c r="J19" s="50" t="n"/>
-    </row>
-    <row r="20" ht="14.55" customHeight="1" s="42">
+      <c r="J19" s="45" t="n"/>
+    </row>
+    <row r="20" ht="14.55" customHeight="1" s="40">
       <c r="B20" s="4" t="n"/>
-      <c r="E20" s="47" t="inlineStr">
+      <c r="E20" s="42" t="inlineStr">
         <is>
           <t>RUA SANTO ANTÔNIO, Nº 659 - TIBIRI</t>
         </is>
       </c>
       <c r="I20" s="33" t="n"/>
-      <c r="J20" s="43" t="n"/>
-    </row>
-    <row r="21" ht="14.55" customHeight="1" s="42">
+      <c r="J20" s="41" t="n"/>
+    </row>
+    <row r="21" ht="14.55" customHeight="1" s="40">
       <c r="B21" s="4" t="n"/>
-      <c r="D21" s="41" t="inlineStr">
+      <c r="D21" s="39" t="inlineStr">
         <is>
           <t>FONE: (98) 9 9268-0495 / 3241-9074  - emapla@emapla.com.br</t>
         </is>
       </c>
-      <c r="H21" s="43" t="n"/>
+      <c r="H21" s="41" t="n"/>
       <c r="I21" s="38" t="inlineStr">
         <is>
           <t>Nº</t>
         </is>
       </c>
       <c r="J21" s="37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="42" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="40" thickBot="1">
       <c r="B22" s="12" t="n"/>
       <c r="C22" s="13" t="n"/>
-      <c r="D22" s="44" t="inlineStr">
+      <c r="D22" s="49" t="inlineStr">
         <is>
           <t>CEP: 65095-330 - SÃO LUÍS-MA - CNPJ: 04.708.275/0001-35</t>
         </is>
       </c>
-      <c r="E22" s="45" t="n"/>
-      <c r="F22" s="45" t="n"/>
-      <c r="G22" s="45" t="n"/>
-      <c r="H22" s="46" t="n"/>
+      <c r="E22" s="50" t="n"/>
+      <c r="F22" s="50" t="n"/>
+      <c r="G22" s="50" t="n"/>
+      <c r="H22" s="51" t="n"/>
       <c r="I22" s="32" t="n"/>
-      <c r="J22" s="46" t="n"/>
-    </row>
-    <row r="23" ht="8.550000000000001" customHeight="1" s="42" thickBot="1" thickTop="1"/>
-    <row r="24" ht="15" customHeight="1" s="42" thickTop="1">
+      <c r="J22" s="51" t="n"/>
+    </row>
+    <row r="23" ht="8.550000000000001" customHeight="1" s="40" thickBot="1" thickTop="1"/>
+    <row r="24" ht="15" customHeight="1" s="40" thickTop="1">
       <c r="B24" s="17" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
       <c r="C24" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="49" t="n"/>
-      <c r="E24" s="49" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="44" t="n"/>
+      <c r="E24" s="44" t="n"/>
       <c r="F24" s="18" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G24" s="22">
-        <f>TODAY()</f>
-        <v/>
+      <c r="G24" s="22" t="inlineStr">
+        <is>
+          <t>14/01/2025</t>
+        </is>
       </c>
       <c r="H24" s="18" t="inlineStr">
         <is>
           <t>Hora:</t>
         </is>
       </c>
-      <c r="I24" s="23">
-        <f>NOW()</f>
-        <v/>
-      </c>
-      <c r="J24" s="50" t="n"/>
+      <c r="I24" s="23" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="J24" s="45" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="4" t="n"/>
-      <c r="J25" s="43" t="n"/>
+      <c r="J25" s="41" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="4" t="n"/>
@@ -1120,10 +1129,10 @@
       </c>
       <c r="D26" s="31" t="inlineStr">
         <is>
-          <t>EDRO</t>
-        </is>
-      </c>
-      <c r="J26" s="43" t="n"/>
+          <t>COCA - COLA</t>
+        </is>
+      </c>
+      <c r="J26" s="41" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="4" t="n"/>
@@ -1148,7 +1157,7 @@
           <t>EGILSON</t>
         </is>
       </c>
-      <c r="J27" s="43" t="n"/>
+      <c r="J27" s="41" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="4" t="n"/>
@@ -1157,14 +1166,18 @@
           <t>Produto:</t>
         </is>
       </c>
-      <c r="D28" s="14" t="n"/>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>Vidro</t>
+        </is>
+      </c>
       <c r="G28" s="16" t="inlineStr">
         <is>
           <t>Especie:</t>
         </is>
       </c>
       <c r="H28" s="14" t="n"/>
-      <c r="J28" s="43" t="n"/>
+      <c r="J28" s="41" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="4" t="n"/>
@@ -1174,11 +1187,11 @@
         </is>
       </c>
       <c r="D29" s="27" t="n">
-        <v>12000</v>
+        <v>11450</v>
       </c>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="14" t="n"/>
-      <c r="J29" s="43" t="n"/>
+      <c r="J29" s="41" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="4" t="n"/>
@@ -1188,11 +1201,11 @@
         </is>
       </c>
       <c r="D30" s="27" t="n">
-        <v>8500</v>
+        <v>8310</v>
       </c>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="14" t="n"/>
-      <c r="J30" s="43" t="n"/>
+      <c r="J30" s="41" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="4" t="n"/>
@@ -1202,37 +1215,37 @@
         </is>
       </c>
       <c r="D31" s="28" t="n">
-        <v>3500</v>
+        <v>3140</v>
       </c>
       <c r="E31" s="28" t="n"/>
       <c r="F31" s="14" t="n"/>
-      <c r="J31" s="43" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="42" thickBot="1">
+      <c r="J31" s="41" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="40" thickBot="1">
       <c r="B32" s="6" t="n"/>
-      <c r="C32" s="45" t="n"/>
-      <c r="D32" s="45" t="n"/>
-      <c r="E32" s="45" t="n"/>
-      <c r="F32" s="45" t="n"/>
-      <c r="G32" s="45" t="n"/>
-      <c r="H32" s="45" t="n"/>
-      <c r="I32" s="45" t="n"/>
-      <c r="J32" s="46" t="n"/>
-    </row>
-    <row r="33" ht="23.55" customHeight="1" s="42" thickBot="1" thickTop="1">
+      <c r="C32" s="50" t="n"/>
+      <c r="D32" s="50" t="n"/>
+      <c r="E32" s="50" t="n"/>
+      <c r="F32" s="50" t="n"/>
+      <c r="G32" s="50" t="n"/>
+      <c r="H32" s="50" t="n"/>
+      <c r="I32" s="50" t="n"/>
+      <c r="J32" s="51" t="n"/>
+    </row>
+    <row r="33" ht="23.55" customHeight="1" s="40" thickBot="1" thickTop="1">
       <c r="B33" s="19" t="inlineStr">
         <is>
           <t>Observação:</t>
         </is>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="52">
         <f>IF(C16="","",C16)</f>
         <v/>
       </c>
-      <c r="D33" s="40" t="n"/>
-      <c r="E33" s="40" t="n"/>
-      <c r="F33" s="40" t="n"/>
-      <c r="G33" s="40" t="n"/>
+      <c r="D33" s="48" t="n"/>
+      <c r="E33" s="48" t="n"/>
+      <c r="F33" s="48" t="n"/>
+      <c r="G33" s="48" t="n"/>
       <c r="H33" s="20" t="inlineStr">
         <is>
           <t>Assinatura:</t>
@@ -1245,7 +1258,7 @@
       </c>
       <c r="J33" s="10" t="n"/>
     </row>
-    <row r="34" ht="15" customHeight="1" s="42" thickTop="1"/>
+    <row r="34" ht="15" customHeight="1" s="40" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="D21:H21"/>

--- a/Ticket/ticket_balanca.xlsx
+++ b/Ticket/ticket_balanca.xlsx
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="J4" s="37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="40" thickBot="1">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="C7" s="24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="44" t="n"/>
       <c r="E7" s="44" t="n"/>
@@ -859,7 +859,7 @@
       </c>
       <c r="G7" s="22" t="inlineStr">
         <is>
-          <t>14/01/2025</t>
+          <t>19/01/2025</t>
         </is>
       </c>
       <c r="H7" s="18" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="I7" s="23" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="J7" s="45" t="n"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D9" s="29" t="inlineStr">
         <is>
-          <t>COCA - COLA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="J9" s="41" t="n"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="D10" s="30" t="inlineStr">
         <is>
-          <t>ROL-0J83</t>
+          <t>AMM-3J12</t>
         </is>
       </c>
       <c r="G10" s="15" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="H10" s="30" t="inlineStr">
         <is>
-          <t>EGILSON</t>
+          <t>PERICLES</t>
         </is>
       </c>
       <c r="J10" s="41" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Vidro</t>
+          <t>MADEIRA</t>
         </is>
       </c>
       <c r="G11" s="16" t="inlineStr">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="D12" s="27" t="n">
-        <v>11450</v>
+        <v>12200</v>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="J12" s="41" t="n"/>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D13" s="27" t="n">
-        <v>8310</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="J13" s="41" t="n"/>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D14" s="28" t="n">
-        <v>3140</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="28" t="n"/>
       <c r="J14" s="41" t="n"/>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="J21" s="37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="40" thickBot="1">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C24" s="21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="44" t="n"/>
       <c r="E24" s="44" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G24" s="22" t="inlineStr">
         <is>
-          <t>14/01/2025</t>
+          <t>19/01/2025</t>
         </is>
       </c>
       <c r="H24" s="18" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I24" s="23" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="J24" s="45" t="n"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D26" s="31" t="inlineStr">
         <is>
-          <t>COCA - COLA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="J26" s="41" t="n"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>ROL-0J83</t>
+          <t>AMM-3J12</t>
         </is>
       </c>
       <c r="F27" s="14" t="n"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="H27" s="14" t="inlineStr">
         <is>
-          <t>EGILSON</t>
+          <t>PERICLES</t>
         </is>
       </c>
       <c r="J27" s="41" t="n"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>Vidro</t>
+          <t>MADEIRA</t>
         </is>
       </c>
       <c r="G28" s="16" t="inlineStr">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="D29" s="27" t="n">
-        <v>11450</v>
+        <v>12200</v>
       </c>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="14" t="n"/>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D30" s="27" t="n">
-        <v>8310</v>
+        <v>10000</v>
       </c>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="14" t="n"/>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="D31" s="28" t="n">
-        <v>3140</v>
+        <v>2200</v>
       </c>
       <c r="E31" s="28" t="n"/>
       <c r="F31" s="14" t="n"/>
